--- a/Server/m2m/data/place_details.xlsx
+++ b/Server/m2m/data/place_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mood2Move\Server\m2m\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD5968-68AB-457C-BF6C-630A36090B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBC3440-AD75-4C40-87FF-C5FB099BC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Place</t>
   </si>
@@ -162,12 +162,6 @@
     <t>La Montana, Destiny Farmstay</t>
   </si>
   <si>
-    <t>Backwater Stays</t>
-  </si>
-  <si>
-    <t>Houseboats, Kumarakom Lake Resort</t>
-  </si>
-  <si>
     <t>Nearby_Places</t>
   </si>
   <si>
@@ -216,7 +210,664 @@
     <t>Grishneshwar Jyotirlinga Temple, Daulatabad Fort, Bibi Ka Maqbara</t>
   </si>
   <si>
-    <t>Andaman &amp; Nicobar</t>
+    <t>Garhwali Cuisine, Kachmauli</t>
+  </si>
+  <si>
+    <t>Woolen Caps, Trekking Gear</t>
+  </si>
+  <si>
+    <t>Auli Ski Resort, Auli Ropeway, Gurso Bugyal, Chattrakund Lake</t>
+  </si>
+  <si>
+    <t>Bikaner</t>
+  </si>
+  <si>
+    <t>Ghevar, Bikaneri Bhujia</t>
+  </si>
+  <si>
+    <t>Narendra Bhawan, Laxmi Niwas Palace</t>
+  </si>
+  <si>
+    <t>Camel Leather Goods, Mojaris</t>
+  </si>
+  <si>
+    <t>Junagarh Fort, Karni Mata Temple, Lalgarh Palace, National Research Centre on Camel</t>
+  </si>
+  <si>
+    <t>Bir Billing</t>
+  </si>
+  <si>
+    <t>Tibetan food, Momos</t>
+  </si>
+  <si>
+    <t>Zostel Bir, The Northern C</t>
+  </si>
+  <si>
+    <t>Tibetan Handicrafts, Prayer Flags</t>
+  </si>
+  <si>
+    <t>Bir Landing Site, Chokling Monastery, Gunehar Waterfall, Deer Park Institute</t>
+  </si>
+  <si>
+    <t>Kanchipuram Silk Sarees, Temple Jewelry</t>
+  </si>
+  <si>
+    <t>Tea, Eucalyptus Oil, Spices</t>
+  </si>
+  <si>
+    <t>Rambagh Palace, ITC Rajputana</t>
+  </si>
+  <si>
+    <t>Blue Pottery, Jaipuri Quilts</t>
+  </si>
+  <si>
+    <t>Hawa Mahal, Amer Fort, City Palace, Jantar Mantar, Nahargarh Fort</t>
+  </si>
+  <si>
+    <t>Jaisalmer</t>
+  </si>
+  <si>
+    <t>Ker Sangri, Laal Maas</t>
+  </si>
+  <si>
+    <t>Suryagarh, Jaisalmer Marriott</t>
+  </si>
+  <si>
+    <t>Camel Leather Goods, Mirror Work Textiles</t>
+  </si>
+  <si>
+    <t>Jaisalmer Fort, Sam Sand Dunes, Patwon Ki Haveli, Gadisar Lake</t>
+  </si>
+  <si>
+    <t>Siddu, Trout Fish</t>
+  </si>
+  <si>
+    <t>Jodhpur</t>
+  </si>
+  <si>
+    <t>Mirchi Bada, Mawa Kachori</t>
+  </si>
+  <si>
+    <t>Umaid Bhawan Palace, RAAS Jodhpur</t>
+  </si>
+  <si>
+    <t>Bandhani Textiles, Jodhpur Juttis</t>
+  </si>
+  <si>
+    <t>Mehrangarh Fort, Jaswant Thada, Umaid Bhawan Palace Museum, Mandore Gardens</t>
+  </si>
+  <si>
+    <t>Kanchipuram Idli, Pongal</t>
+  </si>
+  <si>
+    <t>Regency Kanchipuram, MM Legacy</t>
+  </si>
+  <si>
+    <t>Kailasanathar Temple, Ekambareswarar Temple, Varadharaja Perumal Temple</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>Kothu Parotta, Seafood</t>
+  </si>
+  <si>
+    <t>The Gopinivas Grand, Sparsa Resort</t>
+  </si>
+  <si>
+    <t>Seashell Crafts, Palm Leaf Articles</t>
+  </si>
+  <si>
+    <t>Vivekananda Rock Memorial, Thiruvalluvar Statue, Kanyakumari Beach, Padmanabhapuram Palace</t>
+  </si>
+  <si>
+    <t>Boho Clothing, Woolens</t>
+  </si>
+  <si>
+    <t>Parvati River, Kheerganga Trek, Tosh Village, Manikaran Sahib</t>
+  </si>
+  <si>
+    <t>Kasauli</t>
+  </si>
+  <si>
+    <t>Tibetan food, Band Samosa</t>
+  </si>
+  <si>
+    <t>Kasauli Regency, Baikunth Resorts</t>
+  </si>
+  <si>
+    <t>Local Wines, Jams, Woolen Shawls</t>
+  </si>
+  <si>
+    <t>Monkey Point, Sunset Point, Christ Church, Mall Road</t>
+  </si>
+  <si>
+    <t>Kedarnath</t>
+  </si>
+  <si>
+    <t>Garhwali Khana, Aloo ke Gutke</t>
+  </si>
+  <si>
+    <t>GMVN Tourist Bungalow, Shivalik Valley</t>
+  </si>
+  <si>
+    <t>Rudraksha, Religious Idols</t>
+  </si>
+  <si>
+    <t>Kedarnath Temple, Gandhi Sarovar, Vasuki Tal, Bhairavnath Temple</t>
+  </si>
+  <si>
+    <t>Himachali Cuisine, Corn</t>
+  </si>
+  <si>
+    <t>Deodar Manor, Royal Residency</t>
+  </si>
+  <si>
+    <t>Local Handicrafts, Woolen Items</t>
+  </si>
+  <si>
+    <t>Khajjiar Lake, Kalatop Wildlife Sanctuary, Khajji Nag Temple, Dainkund Peak</t>
+  </si>
+  <si>
+    <t>Bundelkhandi food, Lavang Lata</t>
+  </si>
+  <si>
+    <t>The Lalit Temple View, Radisson Jass</t>
+  </si>
+  <si>
+    <t>Brassware, Tribal Artifacts</t>
+  </si>
+  <si>
+    <t>Khajuraho Group of Monuments, Raneh Falls, Panna National Park</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Roshogolla, Macher Jhol</t>
+  </si>
+  <si>
+    <t>The Oberoi Grand, ITC Royal Bengal</t>
+  </si>
+  <si>
+    <t>Terracotta Items, Bengali Sarees</t>
+  </si>
+  <si>
+    <t>Victoria Memorial, Howrah Bridge, Dakshineswar Kali Temple, Park Street</t>
+  </si>
+  <si>
+    <t>Temple Prasadam, Neer Dosa</t>
+  </si>
+  <si>
+    <t>Adiga's Hotel, Mookambika Palace</t>
+  </si>
+  <si>
+    <t>Religious Artifacts, Sandalwood Items</t>
+  </si>
+  <si>
+    <t>Mookambika Temple, Kodachadri Hills, Arisina Gundi Falls, Maravanthe Beach</t>
+  </si>
+  <si>
+    <t>Konark</t>
+  </si>
+  <si>
+    <t>Chenna Poda, Rasabali</t>
+  </si>
+  <si>
+    <t>Lotus Resort, The Chariot Resort</t>
+  </si>
+  <si>
+    <t>Pipili Applique Work, Stone Carvings</t>
+  </si>
+  <si>
+    <t>Konark Sun Temple, Chandrabhaga Beach, ASI Museum, Ramachandi Temple</t>
+  </si>
+  <si>
+    <t>Garhwali food, Kafuli</t>
+  </si>
+  <si>
+    <t>Fairydale Resort, Lansdowne Villa</t>
+  </si>
+  <si>
+    <t>Pine Cone Crafts, Local Pickles</t>
+  </si>
+  <si>
+    <t>Bhulla Tal, Tip N Top Point, St. Mary's Church, Tarkeshwar Mahadev Temple</t>
+  </si>
+  <si>
+    <t>Leh</t>
+  </si>
+  <si>
+    <t>Thukpa, Skyu</t>
+  </si>
+  <si>
+    <t>Pashmina Shawls, Apricot Jam</t>
+  </si>
+  <si>
+    <t>Pangong Tso Lake, Khardung La Pass, Nubra Valley, Shanti Stupa</t>
+  </si>
+  <si>
+    <t>Ooty Chocolates, Varkey</t>
+  </si>
+  <si>
+    <t>Homemade Jams, Eucalyptus Oil</t>
+  </si>
+  <si>
+    <t>Nilgiri Mountain Railway, Lawrence School, Doddabetta Peak, Tea Museum</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Tunday Kababi, Lucknowi Biryani</t>
+  </si>
+  <si>
+    <t>Taj Mahal Lucknow, Lebua Lucknow</t>
+  </si>
+  <si>
+    <t>Chikankari Garments, Attar (Perfume)</t>
+  </si>
+  <si>
+    <t>Bara Imambara, Rumi Darwaza, Ambedkar Memorial Park, Hazratganj</t>
+  </si>
+  <si>
+    <t>Mahabalipuram</t>
+  </si>
+  <si>
+    <t>Fresh Seafood, South Indian Meals</t>
+  </si>
+  <si>
+    <t>Radisson Blu Resort, InterContinental</t>
+  </si>
+  <si>
+    <t>Granite Sculptures, Seashell Jewelry</t>
+  </si>
+  <si>
+    <t>Shore Temple, Pancha Rathas, Arjuna's Penance, Krishna's Butterball</t>
+  </si>
+  <si>
+    <t>Peda, Kachori Sabzi</t>
+  </si>
+  <si>
+    <t>The Radha Ashok, Brijwasi Royal</t>
+  </si>
+  <si>
+    <t>Brass Idols, Pooja Items</t>
+  </si>
+  <si>
+    <t>Shri Krishna Janmabhoomi, Dwarkadheesh Temple, Vishram Ghat, Gita Mandir</t>
+  </si>
+  <si>
+    <t>Bamboo Rice, Fish Curry</t>
+  </si>
+  <si>
+    <t>Coffee, Handmade Soaps</t>
+  </si>
+  <si>
+    <t>Chembra Peak, Soochipara Falls, Kanthanpara Falls, Neelimala Viewpoint</t>
+  </si>
+  <si>
+    <t>Mount Abu</t>
+  </si>
+  <si>
+    <t>Rajasthani Thali, Gatte ki Sabzi</t>
+  </si>
+  <si>
+    <t>Hotel Hillock, Cama Rajputana Club</t>
+  </si>
+  <si>
+    <t>Marble Statues, Sandalwood Items</t>
+  </si>
+  <si>
+    <t>Dilwara Temples, Nakki Lake, Guru Shikhar, Sunset Point</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Vada Pav, Pav Bhaji</t>
+  </si>
+  <si>
+    <t>The Taj Mahal Palace, The St. Regis</t>
+  </si>
+  <si>
+    <t>Designer Wear, Bollywood Memorabilia</t>
+  </si>
+  <si>
+    <t>Gateway of India, Marine Drive, Elephanta Caves, Siddhivinayak Temple</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Saoji Chicken, Tarri Poha</t>
+  </si>
+  <si>
+    <t>Le Méridien, Radisson Blu Hotel</t>
+  </si>
+  <si>
+    <t>Oranges, Cotton Fabrics</t>
+  </si>
+  <si>
+    <t>Deekshabhoomi, Ambazari Lake, Futala Lake, Raman Science Centre</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Litti Chokha, Sattu Paratha</t>
+  </si>
+  <si>
+    <t>Hotel Maurya, Lemon Tree Premier</t>
+  </si>
+  <si>
+    <t>Madhubani Paintings, Tikuli Art</t>
+  </si>
+  <si>
+    <t>Golghar, Patna Museum, Takht Sri Patna Sahib, Sanjay Gandhi Jaivik Udyan</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Shrewsbury Biscuits, Mastani</t>
+  </si>
+  <si>
+    <t>JW Marriott, The Westin</t>
+  </si>
+  <si>
+    <t>Osho Slippers, Kolhapuri Chappals</t>
+  </si>
+  <si>
+    <t>Shaniwar Wada, Aga Khan Palace, Dagdusheth Halwai Ganpati Temple, Sinhagad Fort</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>Mahaprasad, Khaja</t>
+  </si>
+  <si>
+    <t>Mayfair Heritage, Pramod Convention</t>
+  </si>
+  <si>
+    <t>Pattachitra Paintings, Applique Work</t>
+  </si>
+  <si>
+    <t>Jagannath Temple, Puri Beach, Konark Sun Temple, Chilika Lake</t>
+  </si>
+  <si>
+    <t>Ranthambore</t>
+  </si>
+  <si>
+    <t>Dal Baati Churma</t>
+  </si>
+  <si>
+    <t>The Oberoi Vanyavilas, SUJÁN Sher Bagh</t>
+  </si>
+  <si>
+    <t>Wildlife Paintings, Block-printed Textiles</t>
+  </si>
+  <si>
+    <t>Ranthambore National Park, Ranthambore Fort, Trinetra Ganesh Temple</t>
+  </si>
+  <si>
+    <t>Temple Prasadam</t>
+  </si>
+  <si>
+    <t>Pooja Items, Vibhuti</t>
+  </si>
+  <si>
+    <t>Sabarimala Sree Ayyappa Temple, Pamba Ganapathi Temple, Malikappuram Devi Temple</t>
+  </si>
+  <si>
+    <t>Saputara</t>
+  </si>
+  <si>
+    <t>Gujarati Thali, Dangi Chicken</t>
+  </si>
+  <si>
+    <t>Aakar Lords Inn, Patang Residency</t>
+  </si>
+  <si>
+    <t>Tribal Handicrafts, Bamboo Items</t>
+  </si>
+  <si>
+    <t>Saputara Lake, Step Garden, Sunset Point, Gira Waterfalls</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>Jadoh, Doh-Khlieh</t>
+  </si>
+  <si>
+    <t>Ri Kynjai, The Heritage Club</t>
+  </si>
+  <si>
+    <t>Scottish Tartan Shawls, Bamboo Crafts</t>
+  </si>
+  <si>
+    <t>Umiam Lake, Elephant Falls, Shillong Peak, Laitlum Canyons</t>
+  </si>
+  <si>
+    <t>Shirdi</t>
+  </si>
+  <si>
+    <t>Prasad Ladoo, Maharashtrian Meals</t>
+  </si>
+  <si>
+    <t>Sun-n-Sand Hotel, St. Laurn</t>
+  </si>
+  <si>
+    <t>Sai Baba Idols, Udi Packets</t>
+  </si>
+  <si>
+    <t>Shirdi Sai Baba Temple, Dwarkamai, Chavadi, Shani Shingnapur</t>
+  </si>
+  <si>
+    <t>Meen Molagita, Kerala Prawn Curry</t>
+  </si>
+  <si>
+    <t>Grand Hyatt Bolgatty, Brunton Boatyard</t>
+  </si>
+  <si>
+    <t>Spices, Antiques</t>
+  </si>
+  <si>
+    <t>Fort Kochi, Mattancherry Palace, Jew Town, Chinese Fishing Nets</t>
+  </si>
+  <si>
+    <t>Homemade Chocolates, Hill Bananas</t>
+  </si>
+  <si>
+    <t>The Tamara Kodaikanal, Sterling Kodai</t>
+  </si>
+  <si>
+    <t>Eucalyptus Oil, Spices</t>
+  </si>
+  <si>
+    <t>Kodaikanal Lake, Coaker's Walk, Bryant Park, Pillar Rocks</t>
+  </si>
+  <si>
+    <t>Kullu Shawls, Woolen Jackets</t>
+  </si>
+  <si>
+    <t>Solang Valley, Rohtang Pass, Hadimba Devi Temple, Old Manali</t>
+  </si>
+  <si>
+    <t>Puttu and Kadala Curry, Appam</t>
+  </si>
+  <si>
+    <t>KTDC Tea County, The Fog Munnar</t>
+  </si>
+  <si>
+    <t>Tea, Spices</t>
+  </si>
+  <si>
+    <t>Eravikulam National Park, Mattupetty Dam, Anamudi Peak, Tea Museum</t>
+  </si>
+  <si>
+    <t>Handmade Candles, Woolen Clothes</t>
+  </si>
+  <si>
+    <t>Kempty Falls, Company Garden, Lal Tibba, Camel’s Back Road</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>Mysore Pak, Mysore Masala Dosa</t>
+  </si>
+  <si>
+    <t>Grand Mercure, Radisson Blu Plaza</t>
+  </si>
+  <si>
+    <t>Mysore Silk Sarees, Sandalwood Oil</t>
+  </si>
+  <si>
+    <t>Mysore Palace, Brindavan Gardens, Chamundi Hills, St. Philomena's Church</t>
+  </si>
+  <si>
+    <t>Siddu, Dham</t>
+  </si>
+  <si>
+    <t>Naggar Castle Hotel, Jana View</t>
+  </si>
+  <si>
+    <t>Kullu Shawls, Wooden Crafts</t>
+  </si>
+  <si>
+    <t>Naggar Castle, Roerich Art Gallery, Gauri Shankar Temple, Jana Waterfall</t>
+  </si>
+  <si>
+    <t>Ooty Varkey, Homemade Chocolates</t>
+  </si>
+  <si>
+    <t>Savoy - IHCL SeleQtions, Sterling Ooty</t>
+  </si>
+  <si>
+    <t>Ooty Botanical Gardens, Ooty Lake, Doddabetta Peak, Nilgiri Mountain Railway</t>
+  </si>
+  <si>
+    <t>Pahalgam</t>
+  </si>
+  <si>
+    <t>Kashmiri Wazwan, Trout Fish</t>
+  </si>
+  <si>
+    <t>Welcomhotel by ITC, Pahalgam Hotel</t>
+  </si>
+  <si>
+    <t>Gabbas, Kashmiri Handicrafts</t>
+  </si>
+  <si>
+    <t>Betaab Valley, Aru Valley, Chandanwari, Lidder River</t>
+  </si>
+  <si>
+    <t>Pangot</t>
+  </si>
+  <si>
+    <t>Kumaoni Raita, Bhatt ki Churkani</t>
+  </si>
+  <si>
+    <t>Jungle Lore Birding Lodge, The Nest</t>
+  </si>
+  <si>
+    <t>Local Woolens, Birding Souvenirs</t>
+  </si>
+  <si>
+    <t>Kilbury Bird Sanctuary, Snow View Point, Naina Peak Trek, Guano Hills</t>
+  </si>
+  <si>
+    <t>French Baguettes, Creole Cuisine</t>
+  </si>
+  <si>
+    <t>Palais de Mahe, The Promenade</t>
+  </si>
+  <si>
+    <t>Aromatic Candles, Pottery</t>
+  </si>
+  <si>
+    <t>Auroville, Paradise Beach, The Basilica of the Sacred Heart of Jesus, Sri Aurobindo Ashram</t>
+  </si>
+  <si>
+    <t>Malpua, Dal Baati</t>
+  </si>
+  <si>
+    <t>Ananta Spa, The Westin Pushkar</t>
+  </si>
+  <si>
+    <t>Rajasthani Clothes, Rose Products</t>
+  </si>
+  <si>
+    <t>Pushkar Lake, Brahma Temple, Savitri Temple, Varaha Temple</t>
+  </si>
+  <si>
+    <t>Seafood, Kothu Parotta</t>
+  </si>
+  <si>
+    <t>Hotel Rameswaram Grand, Daiwik Hotels</t>
+  </si>
+  <si>
+    <t>Seashell Souvenirs, Silk Items</t>
+  </si>
+  <si>
+    <t>Ramanathaswamy Temple, Agnitheertham, Dhanushkodi Temple, Pamban Bridge</t>
+  </si>
+  <si>
+    <t>Bhatt ki Churkani, Kafuli</t>
+  </si>
+  <si>
+    <t>Woodsvilla Resort, Chevron Rosemount</t>
+  </si>
+  <si>
+    <t>Kumaoni Shawls, Local Jams</t>
+  </si>
+  <si>
+    <t>Chaubatia Gardens, Jhula Devi Temple, Haidakhan Babaji Temple, Bhalu Dam</t>
+  </si>
+  <si>
+    <t>Aloo Puri, Lassi</t>
+  </si>
+  <si>
+    <t>Yoga Wear, Rudraksha Beads</t>
+  </si>
+  <si>
+    <t>Laxman &amp; Ram Jhula, Triveni Ghat, Parmarth Niketan Ashram, Neer Garh Waterfall</t>
+  </si>
+  <si>
+    <t>Accommodation by Devaswom Board</t>
+  </si>
+  <si>
+    <t>Religious Items, Sarees</t>
+  </si>
+  <si>
+    <t>Kalighat Temple, Birja Temple, Kamakhya Temple, Vaishno Devi</t>
+  </si>
+  <si>
+    <t>Chana Madra, Dham</t>
+  </si>
+  <si>
+    <t>Wool Shawls, Himachali Caps</t>
+  </si>
+  <si>
+    <t>The Ridge, Mall Road, Jakhoo Temple, Kufri, Christ Church</t>
+  </si>
+  <si>
+    <t>Laddu Prasadam, Pulihora</t>
+  </si>
+  <si>
+    <t>Marasa Sarovar Premiere, Fortune Select</t>
+  </si>
+  <si>
+    <t>Tirupati Balaji Idols, Wooden Toys</t>
+  </si>
+  <si>
+    <t>Sri Venkateswara Temple, Sri Govindarajaswami Temple, Talakona Waterfalls</t>
+  </si>
+  <si>
+    <t>AndamanNicobar</t>
   </si>
   <si>
     <t>Seafood, Coconut Prawn Curry</t>
@@ -231,677 +882,41 @@
     <t>Radhanagar Beach, Cellular Jail, Ross Island, North Bay Island</t>
   </si>
   <si>
-    <t>Garhwali Cuisine, Kachmauli</t>
-  </si>
-  <si>
-    <t>Woolen Caps, Trekking Gear</t>
-  </si>
-  <si>
-    <t>Auli Ski Resort, Auli Ropeway, Gurso Bugyal, Chattrakund Lake</t>
-  </si>
-  <si>
-    <t>Karimeen Pollichathu, Puttu</t>
-  </si>
-  <si>
-    <t>Coconut Crafts, Coir Mats</t>
-  </si>
-  <si>
-    <t>Alleppey Houseboats, Kumarakom Bird Sanctuary, Poovar Island, Munroe Island</t>
-  </si>
-  <si>
-    <t>Bikaner</t>
-  </si>
-  <si>
-    <t>Ghevar, Bikaneri Bhujia</t>
-  </si>
-  <si>
-    <t>Narendra Bhawan, Laxmi Niwas Palace</t>
-  </si>
-  <si>
-    <t>Camel Leather Goods, Mojaris</t>
-  </si>
-  <si>
-    <t>Junagarh Fort, Karni Mata Temple, Lalgarh Palace, National Research Centre on Camel</t>
-  </si>
-  <si>
-    <t>Bir Billing</t>
-  </si>
-  <si>
-    <t>Tibetan food, Momos</t>
-  </si>
-  <si>
-    <t>Zostel Bir, The Northern C</t>
-  </si>
-  <si>
-    <t>Tibetan Handicrafts, Prayer Flags</t>
-  </si>
-  <si>
-    <t>Bir Landing Site, Chokling Monastery, Gunehar Waterfall, Deer Park Institute</t>
-  </si>
-  <si>
-    <t>Kanchipuram Silk Sarees, Temple Jewelry</t>
-  </si>
-  <si>
-    <t>Tea, Eucalyptus Oil, Spices</t>
-  </si>
-  <si>
-    <t>Rambagh Palace, ITC Rajputana</t>
-  </si>
-  <si>
-    <t>Blue Pottery, Jaipuri Quilts</t>
-  </si>
-  <si>
-    <t>Hawa Mahal, Amer Fort, City Palace, Jantar Mantar, Nahargarh Fort</t>
-  </si>
-  <si>
-    <t>Jaisalmer</t>
-  </si>
-  <si>
-    <t>Ker Sangri, Laal Maas</t>
-  </si>
-  <si>
-    <t>Suryagarh, Jaisalmer Marriott</t>
-  </si>
-  <si>
-    <t>Camel Leather Goods, Mirror Work Textiles</t>
-  </si>
-  <si>
-    <t>Jaisalmer Fort, Sam Sand Dunes, Patwon Ki Haveli, Gadisar Lake</t>
-  </si>
-  <si>
-    <t>Siddu, Trout Fish</t>
-  </si>
-  <si>
-    <t>Jodhpur</t>
-  </si>
-  <si>
-    <t>Mirchi Bada, Mawa Kachori</t>
-  </si>
-  <si>
-    <t>Umaid Bhawan Palace, RAAS Jodhpur</t>
-  </si>
-  <si>
-    <t>Bandhani Textiles, Jodhpur Juttis</t>
-  </si>
-  <si>
-    <t>Mehrangarh Fort, Jaswant Thada, Umaid Bhawan Palace Museum, Mandore Gardens</t>
-  </si>
-  <si>
-    <t>Kanchipuram Idli, Pongal</t>
-  </si>
-  <si>
-    <t>Regency Kanchipuram, MM Legacy</t>
-  </si>
-  <si>
-    <t>Kailasanathar Temple, Ekambareswarar Temple, Varadharaja Perumal Temple</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>Kothu Parotta, Seafood</t>
-  </si>
-  <si>
-    <t>The Gopinivas Grand, Sparsa Resort</t>
-  </si>
-  <si>
-    <t>Seashell Crafts, Palm Leaf Articles</t>
-  </si>
-  <si>
-    <t>Vivekananda Rock Memorial, Thiruvalluvar Statue, Kanyakumari Beach, Padmanabhapuram Palace</t>
-  </si>
-  <si>
-    <t>Boho Clothing, Woolens</t>
-  </si>
-  <si>
-    <t>Parvati River, Kheerganga Trek, Tosh Village, Manikaran Sahib</t>
-  </si>
-  <si>
-    <t>Kasauli</t>
-  </si>
-  <si>
-    <t>Tibetan food, Band Samosa</t>
-  </si>
-  <si>
-    <t>Kasauli Regency, Baikunth Resorts</t>
-  </si>
-  <si>
-    <t>Local Wines, Jams, Woolen Shawls</t>
-  </si>
-  <si>
-    <t>Monkey Point, Sunset Point, Christ Church, Mall Road</t>
-  </si>
-  <si>
-    <t>Kedarnath</t>
-  </si>
-  <si>
-    <t>Garhwali Khana, Aloo ke Gutke</t>
-  </si>
-  <si>
-    <t>GMVN Tourist Bungalow, Shivalik Valley</t>
-  </si>
-  <si>
-    <t>Rudraksha, Religious Idols</t>
-  </si>
-  <si>
-    <t>Kedarnath Temple, Gandhi Sarovar, Vasuki Tal, Bhairavnath Temple</t>
-  </si>
-  <si>
-    <t>Himachali Cuisine, Corn</t>
-  </si>
-  <si>
-    <t>Deodar Manor, Royal Residency</t>
-  </si>
-  <si>
-    <t>Local Handicrafts, Woolen Items</t>
-  </si>
-  <si>
-    <t>Khajjiar Lake, Kalatop Wildlife Sanctuary, Khajji Nag Temple, Dainkund Peak</t>
-  </si>
-  <si>
-    <t>Bundelkhandi food, Lavang Lata</t>
-  </si>
-  <si>
-    <t>The Lalit Temple View, Radisson Jass</t>
-  </si>
-  <si>
-    <t>Brassware, Tribal Artifacts</t>
-  </si>
-  <si>
-    <t>Khajuraho Group of Monuments, Raneh Falls, Panna National Park</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Roshogolla, Macher Jhol</t>
-  </si>
-  <si>
-    <t>The Oberoi Grand, ITC Royal Bengal</t>
-  </si>
-  <si>
-    <t>Terracotta Items, Bengali Sarees</t>
-  </si>
-  <si>
-    <t>Victoria Memorial, Howrah Bridge, Dakshineswar Kali Temple, Park Street</t>
-  </si>
-  <si>
-    <t>Temple Prasadam, Neer Dosa</t>
-  </si>
-  <si>
-    <t>Adiga's Hotel, Mookambika Palace</t>
-  </si>
-  <si>
-    <t>Religious Artifacts, Sandalwood Items</t>
-  </si>
-  <si>
-    <t>Mookambika Temple, Kodachadri Hills, Arisina Gundi Falls, Maravanthe Beach</t>
-  </si>
-  <si>
-    <t>Konark</t>
-  </si>
-  <si>
-    <t>Chenna Poda, Rasabali</t>
-  </si>
-  <si>
-    <t>Lotus Resort, The Chariot Resort</t>
-  </si>
-  <si>
-    <t>Pipili Applique Work, Stone Carvings</t>
-  </si>
-  <si>
-    <t>Konark Sun Temple, Chandrabhaga Beach, ASI Museum, Ramachandi Temple</t>
-  </si>
-  <si>
-    <t>Garhwali food, Kafuli</t>
-  </si>
-  <si>
-    <t>Fairydale Resort, Lansdowne Villa</t>
-  </si>
-  <si>
-    <t>Pine Cone Crafts, Local Pickles</t>
-  </si>
-  <si>
-    <t>Bhulla Tal, Tip N Top Point, St. Mary's Church, Tarkeshwar Mahadev Temple</t>
-  </si>
-  <si>
-    <t>Leh</t>
-  </si>
-  <si>
-    <t>Thukpa, Skyu</t>
-  </si>
-  <si>
-    <t>Pashmina Shawls, Apricot Jam</t>
-  </si>
-  <si>
-    <t>Pangong Tso Lake, Khardung La Pass, Nubra Valley, Shanti Stupa</t>
-  </si>
-  <si>
-    <t>Ooty Chocolates, Varkey</t>
-  </si>
-  <si>
-    <t>Homemade Jams, Eucalyptus Oil</t>
-  </si>
-  <si>
-    <t>Nilgiri Mountain Railway, Lawrence School, Doddabetta Peak, Tea Museum</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>Tunday Kababi, Lucknowi Biryani</t>
-  </si>
-  <si>
-    <t>Taj Mahal Lucknow, Lebua Lucknow</t>
-  </si>
-  <si>
-    <t>Chikankari Garments, Attar (Perfume)</t>
-  </si>
-  <si>
-    <t>Bara Imambara, Rumi Darwaza, Ambedkar Memorial Park, Hazratganj</t>
-  </si>
-  <si>
-    <t>Mahabalipuram</t>
-  </si>
-  <si>
-    <t>Fresh Seafood, South Indian Meals</t>
-  </si>
-  <si>
-    <t>Radisson Blu Resort, InterContinental</t>
-  </si>
-  <si>
-    <t>Granite Sculptures, Seashell Jewelry</t>
-  </si>
-  <si>
-    <t>Shore Temple, Pancha Rathas, Arjuna's Penance, Krishna's Butterball</t>
-  </si>
-  <si>
-    <t>Peda, Kachori Sabzi</t>
-  </si>
-  <si>
-    <t>The Radha Ashok, Brijwasi Royal</t>
-  </si>
-  <si>
-    <t>Brass Idols, Pooja Items</t>
-  </si>
-  <si>
-    <t>Shri Krishna Janmabhoomi, Dwarkadheesh Temple, Vishram Ghat, Gita Mandir</t>
-  </si>
-  <si>
-    <t>Bamboo Rice, Fish Curry</t>
-  </si>
-  <si>
-    <t>Coffee, Handmade Soaps</t>
-  </si>
-  <si>
-    <t>Chembra Peak, Soochipara Falls, Kanthanpara Falls, Neelimala Viewpoint</t>
-  </si>
-  <si>
-    <t>Mount Abu</t>
-  </si>
-  <si>
-    <t>Rajasthani Thali, Gatte ki Sabzi</t>
-  </si>
-  <si>
-    <t>Hotel Hillock, Cama Rajputana Club</t>
-  </si>
-  <si>
-    <t>Marble Statues, Sandalwood Items</t>
-  </si>
-  <si>
-    <t>Dilwara Temples, Nakki Lake, Guru Shikhar, Sunset Point</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Vada Pav, Pav Bhaji</t>
-  </si>
-  <si>
-    <t>The Taj Mahal Palace, The St. Regis</t>
-  </si>
-  <si>
-    <t>Designer Wear, Bollywood Memorabilia</t>
-  </si>
-  <si>
-    <t>Gateway of India, Marine Drive, Elephanta Caves, Siddhivinayak Temple</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>Saoji Chicken, Tarri Poha</t>
-  </si>
-  <si>
-    <t>Le Méridien, Radisson Blu Hotel</t>
-  </si>
-  <si>
-    <t>Oranges, Cotton Fabrics</t>
-  </si>
-  <si>
-    <t>Deekshabhoomi, Ambazari Lake, Futala Lake, Raman Science Centre</t>
-  </si>
-  <si>
-    <t>Patna</t>
-  </si>
-  <si>
-    <t>Litti Chokha, Sattu Paratha</t>
-  </si>
-  <si>
-    <t>Hotel Maurya, Lemon Tree Premier</t>
-  </si>
-  <si>
-    <t>Madhubani Paintings, Tikuli Art</t>
-  </si>
-  <si>
-    <t>Golghar, Patna Museum, Takht Sri Patna Sahib, Sanjay Gandhi Jaivik Udyan</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Shrewsbury Biscuits, Mastani</t>
-  </si>
-  <si>
-    <t>JW Marriott, The Westin</t>
-  </si>
-  <si>
-    <t>Osho Slippers, Kolhapuri Chappals</t>
-  </si>
-  <si>
-    <t>Shaniwar Wada, Aga Khan Palace, Dagdusheth Halwai Ganpati Temple, Sinhagad Fort</t>
-  </si>
-  <si>
-    <t>Puri</t>
-  </si>
-  <si>
-    <t>Mahaprasad, Khaja</t>
-  </si>
-  <si>
-    <t>Mayfair Heritage, Pramod Convention</t>
-  </si>
-  <si>
-    <t>Pattachitra Paintings, Applique Work</t>
-  </si>
-  <si>
-    <t>Jagannath Temple, Puri Beach, Konark Sun Temple, Chilika Lake</t>
-  </si>
-  <si>
-    <t>Ranthambore</t>
-  </si>
-  <si>
-    <t>Dal Baati Churma</t>
-  </si>
-  <si>
-    <t>The Oberoi Vanyavilas, SUJÁN Sher Bagh</t>
-  </si>
-  <si>
-    <t>Wildlife Paintings, Block-printed Textiles</t>
-  </si>
-  <si>
-    <t>Ranthambore National Park, Ranthambore Fort, Trinetra Ganesh Temple</t>
-  </si>
-  <si>
-    <t>Temple Prasadam</t>
-  </si>
-  <si>
-    <t>Pooja Items, Vibhuti</t>
-  </si>
-  <si>
-    <t>Sabarimala Sree Ayyappa Temple, Pamba Ganapathi Temple, Malikappuram Devi Temple</t>
-  </si>
-  <si>
-    <t>Saputara</t>
-  </si>
-  <si>
-    <t>Gujarati Thali, Dangi Chicken</t>
-  </si>
-  <si>
-    <t>Aakar Lords Inn, Patang Residency</t>
-  </si>
-  <si>
-    <t>Tribal Handicrafts, Bamboo Items</t>
-  </si>
-  <si>
-    <t>Saputara Lake, Step Garden, Sunset Point, Gira Waterfalls</t>
-  </si>
-  <si>
-    <t>Shillong</t>
-  </si>
-  <si>
-    <t>Jadoh, Doh-Khlieh</t>
-  </si>
-  <si>
-    <t>Ri Kynjai, The Heritage Club</t>
-  </si>
-  <si>
-    <t>Scottish Tartan Shawls, Bamboo Crafts</t>
-  </si>
-  <si>
-    <t>Umiam Lake, Elephant Falls, Shillong Peak, Laitlum Canyons</t>
-  </si>
-  <si>
-    <t>Shirdi</t>
-  </si>
-  <si>
-    <t>Prasad Ladoo, Maharashtrian Meals</t>
-  </si>
-  <si>
-    <t>Sun-n-Sand Hotel, St. Laurn</t>
-  </si>
-  <si>
-    <t>Sai Baba Idols, Udi Packets</t>
-  </si>
-  <si>
-    <t>Shirdi Sai Baba Temple, Dwarkamai, Chavadi, Shani Shingnapur</t>
-  </si>
-  <si>
-    <t>Meen Molagita, Kerala Prawn Curry</t>
-  </si>
-  <si>
-    <t>Grand Hyatt Bolgatty, Brunton Boatyard</t>
-  </si>
-  <si>
-    <t>Spices, Antiques</t>
-  </si>
-  <si>
-    <t>Fort Kochi, Mattancherry Palace, Jew Town, Chinese Fishing Nets</t>
-  </si>
-  <si>
-    <t>Homemade Chocolates, Hill Bananas</t>
-  </si>
-  <si>
-    <t>The Tamara Kodaikanal, Sterling Kodai</t>
-  </si>
-  <si>
-    <t>Eucalyptus Oil, Spices</t>
-  </si>
-  <si>
-    <t>Kodaikanal Lake, Coaker's Walk, Bryant Park, Pillar Rocks</t>
-  </si>
-  <si>
-    <t>Kullu Shawls, Woolen Jackets</t>
-  </si>
-  <si>
-    <t>Solang Valley, Rohtang Pass, Hadimba Devi Temple, Old Manali</t>
-  </si>
-  <si>
-    <t>Puttu and Kadala Curry, Appam</t>
-  </si>
-  <si>
-    <t>KTDC Tea County, The Fog Munnar</t>
-  </si>
-  <si>
-    <t>Tea, Spices</t>
-  </si>
-  <si>
-    <t>Eravikulam National Park, Mattupetty Dam, Anamudi Peak, Tea Museum</t>
-  </si>
-  <si>
-    <t>Handmade Candles, Woolen Clothes</t>
-  </si>
-  <si>
-    <t>Kempty Falls, Company Garden, Lal Tibba, Camel’s Back Road</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>Mysore Pak, Mysore Masala Dosa</t>
-  </si>
-  <si>
-    <t>Grand Mercure, Radisson Blu Plaza</t>
-  </si>
-  <si>
-    <t>Mysore Silk Sarees, Sandalwood Oil</t>
-  </si>
-  <si>
-    <t>Mysore Palace, Brindavan Gardens, Chamundi Hills, St. Philomena's Church</t>
-  </si>
-  <si>
-    <t>Siddu, Dham</t>
-  </si>
-  <si>
-    <t>Naggar Castle Hotel, Jana View</t>
-  </si>
-  <si>
-    <t>Kullu Shawls, Wooden Crafts</t>
-  </si>
-  <si>
-    <t>Naggar Castle, Roerich Art Gallery, Gauri Shankar Temple, Jana Waterfall</t>
-  </si>
-  <si>
-    <t>Ooty Varkey, Homemade Chocolates</t>
-  </si>
-  <si>
-    <t>Savoy - IHCL SeleQtions, Sterling Ooty</t>
-  </si>
-  <si>
-    <t>Ooty Botanical Gardens, Ooty Lake, Doddabetta Peak, Nilgiri Mountain Railway</t>
-  </si>
-  <si>
-    <t>Pahalgam</t>
-  </si>
-  <si>
-    <t>Kashmiri Wazwan, Trout Fish</t>
-  </si>
-  <si>
-    <t>Welcomhotel by ITC, Pahalgam Hotel</t>
-  </si>
-  <si>
-    <t>Gabbas, Kashmiri Handicrafts</t>
-  </si>
-  <si>
-    <t>Betaab Valley, Aru Valley, Chandanwari, Lidder River</t>
-  </si>
-  <si>
-    <t>Pangot</t>
-  </si>
-  <si>
-    <t>Kumaoni Raita, Bhatt ki Churkani</t>
-  </si>
-  <si>
-    <t>Jungle Lore Birding Lodge, The Nest</t>
-  </si>
-  <si>
-    <t>Local Woolens, Birding Souvenirs</t>
-  </si>
-  <si>
-    <t>Kilbury Bird Sanctuary, Snow View Point, Naina Peak Trek, Guano Hills</t>
-  </si>
-  <si>
-    <t>French Baguettes, Creole Cuisine</t>
-  </si>
-  <si>
-    <t>Palais de Mahe, The Promenade</t>
-  </si>
-  <si>
-    <t>Aromatic Candles, Pottery</t>
-  </si>
-  <si>
-    <t>Auroville, Paradise Beach, The Basilica of the Sacred Heart of Jesus, Sri Aurobindo Ashram</t>
-  </si>
-  <si>
-    <t>Malpua, Dal Baati</t>
-  </si>
-  <si>
-    <t>Ananta Spa, The Westin Pushkar</t>
-  </si>
-  <si>
-    <t>Rajasthani Clothes, Rose Products</t>
-  </si>
-  <si>
-    <t>Pushkar Lake, Brahma Temple, Savitri Temple, Varaha Temple</t>
-  </si>
-  <si>
-    <t>Seafood, Kothu Parotta</t>
-  </si>
-  <si>
-    <t>Hotel Rameswaram Grand, Daiwik Hotels</t>
-  </si>
-  <si>
-    <t>Seashell Souvenirs, Silk Items</t>
-  </si>
-  <si>
-    <t>Ramanathaswamy Temple, Agnitheertham, Dhanushkodi Temple, Pamban Bridge</t>
-  </si>
-  <si>
-    <t>Bhatt ki Churkani, Kafuli</t>
-  </si>
-  <si>
-    <t>Woodsvilla Resort, Chevron Rosemount</t>
-  </si>
-  <si>
-    <t>Kumaoni Shawls, Local Jams</t>
-  </si>
-  <si>
-    <t>Chaubatia Gardens, Jhula Devi Temple, Haidakhan Babaji Temple, Bhalu Dam</t>
-  </si>
-  <si>
-    <t>Aloo Puri, Lassi</t>
-  </si>
-  <si>
-    <t>Yoga Wear, Rudraksha Beads</t>
-  </si>
-  <si>
-    <t>Laxman &amp; Ram Jhula, Triveni Ghat, Parmarth Niketan Ashram, Neer Garh Waterfall</t>
-  </si>
-  <si>
-    <t>Accommodation by Devaswom Board</t>
-  </si>
-  <si>
-    <t>Religious Items, Sarees</t>
-  </si>
-  <si>
-    <t>Kalighat Temple, Birja Temple, Kamakhya Temple, Vaishno Devi</t>
-  </si>
-  <si>
-    <t>Chana Madra, Dham</t>
-  </si>
-  <si>
-    <t>Wool Shawls, Himachali Caps</t>
-  </si>
-  <si>
-    <t>The Ridge, Mall Road, Jakhoo Temple, Kufri, Christ Church</t>
-  </si>
-  <si>
-    <t>Laddu Prasadam, Pulihora</t>
-  </si>
-  <si>
-    <t>Marasa Sarovar Premiere, Fortune Select</t>
-  </si>
-  <si>
-    <t>Tirupati Balaji Idols, Wooden Toys</t>
-  </si>
-  <si>
-    <t>Sri Venkateswara Temple, Sri Govindarajaswami Temple, Talakona Waterfalls</t>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Seafood, Vindaloo</t>
+  </si>
+  <si>
+    <t>Taj Fort Aguada, W Goa</t>
+  </si>
+  <si>
+    <t>Cashew Nuts, Feni</t>
+  </si>
+  <si>
+    <t>Calangute Beach, Baga Beach, Dudhsagar Falls, Old Goa Churches</t>
+  </si>
+  <si>
+    <t>Borra caves, Tribal Musuem, Katiki Waterfalls</t>
+  </si>
+  <si>
+    <t>Haritha Valley Resort, Araku Valley Resort</t>
+  </si>
+  <si>
+    <t>Tribal Handicrafts, Araku Artifacts</t>
+  </si>
+  <si>
+    <t>Bamboo Chicken, Tribal Coffee</t>
+  </si>
+  <si>
+    <t>ArakuValley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -915,6 +930,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -952,11 +973,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430500D1-9E56-4FFC-A30E-AEFF37AB143A}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1300,977 +1324,994 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>280</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>294</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>289</v>
+      <c r="B59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
